--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지8.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C78D4-74E7-4D8F-94CF-5A0544F792F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B242FB6-EB5C-44D7-8A86-C089933C9E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1097" yWindow="1097" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4544,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4587,7 +4587,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4602,11 +4601,10 @@
         <v>1.510503422468901E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D16" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4621,11 +4619,10 @@
         <v>1.431057974696159E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4640,11 +4637,10 @@
         <v>1.361124217510223E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4659,11 +4655,10 @@
         <v>1.4275383204221731E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4678,11 +4673,10 @@
         <v>1.363437902182341E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4697,11 +4691,10 @@
         <v>1.3803255744278429E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4716,11 +4709,10 @@
         <v>1.7787737771868709E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4735,11 +4727,10 @@
         <v>3.8967728614807129E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4754,11 +4745,10 @@
         <v>0.9722827672958374</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -4776,11 +4766,10 @@
         <v>1.3913810253143311E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4795,11 +4784,10 @@
         <v>1.3708497397601599E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4814,11 +4802,10 @@
         <v>1.389074232429266E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4833,11 +4820,10 @@
         <v>1.401470508426428E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4852,11 +4838,10 @@
         <v>0.2186428755521774</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4871,11 +4856,10 @@
         <v>0.98483169078826904</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D80" si="2">IF(C17&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D17:D80" si="1">IF(C17&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -4893,11 +4877,10 @@
         <v>1.370273996144533E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4912,11 +4895,10 @@
         <v>1.4103539288043979E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4931,11 +4913,10 @@
         <v>1.380041893571615E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4950,11 +4931,10 @@
         <v>0.21737375855445859</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4969,11 +4949,10 @@
         <v>1.3697231188416479E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4988,11 +4967,10 @@
         <v>0.98532050848007202</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23">
@@ -5010,11 +4988,10 @@
         <v>1.3774620369076731E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5029,11 +5006,10 @@
         <v>1.495528779923916E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5048,11 +5024,10 @@
         <v>1.387197617441416E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5067,11 +5042,10 @@
         <v>1.366166677325964E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5086,11 +5060,10 @@
         <v>1.446923520416021E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5105,11 +5078,10 @@
         <v>0.98532050848007202</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29">
@@ -5127,11 +5099,10 @@
         <v>1.389172673225403E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5146,11 +5117,10 @@
         <v>1.373779773712158E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5165,11 +5135,10 @@
         <v>1.644079573452473E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5184,11 +5153,10 @@
         <v>1.628234796226025E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5203,11 +5171,10 @@
         <v>1.372266840189695E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5222,11 +5189,10 @@
         <v>1.549637131392956E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5241,11 +5207,10 @@
         <v>0.98538357019424438</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5260,11 +5225,10 @@
         <v>0.1893316060304642</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5279,11 +5243,10 @@
         <v>0.2176112234592438</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5298,11 +5261,10 @@
         <v>1.3769239187240601E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5317,11 +5279,10 @@
         <v>2.9811615124344829E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5336,11 +5297,10 @@
         <v>7.5473949313163757E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5355,11 +5315,10 @@
         <v>0.98512589931488037</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5374,11 +5333,10 @@
         <v>1.464608311653137E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5393,11 +5351,10 @@
         <v>0.97656583786010742</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44">
@@ -5415,11 +5372,10 @@
         <v>3.2414652407169342E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5434,11 +5390,10 @@
         <v>0.98546093702316284</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5453,11 +5408,10 @@
         <v>1.3553610071539881E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5472,11 +5426,10 @@
         <v>1.366952061653137E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5491,11 +5444,10 @@
         <v>1.37331010773778E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5510,11 +5462,10 @@
         <v>0.98348802328109741</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F50">
@@ -5532,11 +5483,10 @@
         <v>1.3979858718812469E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5551,11 +5501,10 @@
         <v>1.3866334222257141E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5570,11 +5519,10 @@
         <v>1.3783834874629969E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5589,11 +5537,10 @@
         <v>2.3622589185833931E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5608,11 +5555,10 @@
         <v>1.5760259702801701E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5627,11 +5573,10 @@
         <v>1.373780332505703E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5646,11 +5591,10 @@
         <v>1.355186384171247E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5665,11 +5609,10 @@
         <v>1.3958342373371121E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5684,11 +5627,10 @@
         <v>1.381070911884308E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5703,11 +5645,10 @@
         <v>0.63868123292922974</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5722,11 +5663,10 @@
         <v>3.3499311655759811E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5741,11 +5681,10 @@
         <v>1.367057580500841E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5760,11 +5699,10 @@
         <v>5.171995609998703E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5779,11 +5717,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F64">
@@ -5801,11 +5738,10 @@
         <v>1.477226428687572E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5820,11 +5756,10 @@
         <v>0.1010700389742851</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="3">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -5839,11 +5774,10 @@
         <v>0.1687909513711929</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5858,11 +5792,10 @@
         <v>1.5993034467101101E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5877,11 +5810,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F69">
@@ -5899,11 +5831,10 @@
         <v>1.623492501676083E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5918,11 +5849,10 @@
         <v>1.6228429973125461E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5937,11 +5867,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F72">
@@ -5959,11 +5888,10 @@
         <v>1.384855806827545E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5978,11 +5906,10 @@
         <v>1.3771349564194679E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5997,11 +5924,10 @@
         <v>1.7603877931833271E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6016,11 +5942,10 @@
         <v>0.79789364337921143</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F76">
@@ -6038,11 +5963,10 @@
         <v>1.5553741715848449E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6057,11 +5981,10 @@
         <v>4.2806513607501977E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6076,11 +5999,10 @@
         <v>1.3902195729315279E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6095,11 +6017,10 @@
         <v>1.37929767370224E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6114,11 +6035,10 @@
         <v>4.1998069733381271E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81:D144" si="4">IF(C81&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D81:D144" si="2">IF(C81&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6133,11 +6053,10 @@
         <v>1.7757618799805641E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6152,11 +6071,10 @@
         <v>1.398453209549189E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6171,11 +6089,10 @@
         <v>7.3751218616962433E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6190,11 +6107,10 @@
         <v>1.4783032238483431E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6209,11 +6125,10 @@
         <v>0.98544609546661377</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F86">
@@ -6231,11 +6146,10 @@
         <v>3.7524435669183731E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6250,11 +6164,10 @@
         <v>1.4881213195621971E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6269,11 +6182,10 @@
         <v>3.4830726683139801E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6288,11 +6200,10 @@
         <v>1.4195208437740799E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6307,11 +6218,10 @@
         <v>0.98546230792999268</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F91">
@@ -6329,11 +6239,10 @@
         <v>1.395934540778399E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6348,11 +6257,10 @@
         <v>1.818189769983292E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6367,11 +6275,10 @@
         <v>1.5365103259682661E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6386,11 +6293,10 @@
         <v>1.357276923954487E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6405,11 +6311,10 @@
         <v>1.3615250587463381E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6424,11 +6329,10 @@
         <v>1.359699759632349E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6443,11 +6347,10 @@
         <v>0.98542952537536621</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6462,11 +6365,10 @@
         <v>0.9854397177696228</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F99">
@@ -6484,11 +6386,10 @@
         <v>1.8285909667611119E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6503,11 +6404,10 @@
         <v>1.3624601997435089E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6522,11 +6422,10 @@
         <v>2.1812638267874721E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6541,11 +6440,10 @@
         <v>1.3655185699462891E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6560,11 +6458,10 @@
         <v>1.3631973415613169E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6579,11 +6476,10 @@
         <v>9.9536202847957611E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6598,11 +6494,10 @@
         <v>0.98523604869842529</v>
       </c>
       <c r="D106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F106">
@@ -6620,11 +6515,10 @@
         <v>1.5318570658564569E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6639,11 +6533,10 @@
         <v>7.6356314122676849E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6658,11 +6551,10 @@
         <v>1.387754641473293E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6677,11 +6569,10 @@
         <v>3.1381167471408837E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6696,11 +6587,10 @@
         <v>0.98547148704528809</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F111">
@@ -6718,11 +6608,10 @@
         <v>0.94707530736923218</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F112">
@@ -6740,11 +6629,10 @@
         <v>1.520943269133568E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6759,11 +6647,10 @@
         <v>0.97892898321151733</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F114">
@@ -6781,11 +6668,10 @@
         <v>0.98536807298660278</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F115">
@@ -6803,11 +6689,10 @@
         <v>1.367080677300692E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6822,11 +6707,10 @@
         <v>1.3741558417677879E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6841,11 +6725,10 @@
         <v>1.364948321133852E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6860,11 +6743,10 @@
         <v>0.98547863960266113</v>
       </c>
       <c r="D119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6879,11 +6761,10 @@
         <v>0.11233802884817121</v>
       </c>
       <c r="D120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6898,11 +6779,10 @@
         <v>1.391349732875824E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6917,11 +6797,10 @@
         <v>0.98547351360321045</v>
       </c>
       <c r="D122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F122">
@@ -6939,11 +6818,10 @@
         <v>1.3948750682175159E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6958,11 +6836,10 @@
         <v>0.98547124862670898</v>
       </c>
       <c r="D124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6977,11 +6854,10 @@
         <v>0.98480391502380371</v>
       </c>
       <c r="D125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6996,11 +6872,10 @@
         <v>0.70358031988143921</v>
       </c>
       <c r="D126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7015,11 +6890,10 @@
         <v>0.92646849155426025</v>
       </c>
       <c r="D127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F127">
@@ -7037,11 +6911,10 @@
         <v>0.21751610934734339</v>
       </c>
       <c r="D128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7056,11 +6929,10 @@
         <v>0.98109835386276245</v>
       </c>
       <c r="D129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F129">
@@ -7078,11 +6950,10 @@
         <v>5.973554402589798E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="5">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7097,11 +6968,10 @@
         <v>3.1229438260197639E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7116,11 +6986,10 @@
         <v>0.8042789101600647</v>
       </c>
       <c r="D132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E132">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F132">
@@ -7138,11 +7007,10 @@
         <v>1.3900666497647761E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7157,11 +7025,10 @@
         <v>1.3762363232672209E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7176,11 +7043,10 @@
         <v>8.4490083158016205E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7195,11 +7061,10 @@
         <v>1.94011777639389E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7214,11 +7079,10 @@
         <v>1.416203007102013E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7233,11 +7097,10 @@
         <v>4.8063106834888458E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7252,11 +7115,10 @@
         <v>1.3740601949393749E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7271,11 +7133,10 @@
         <v>3.9585072547197342E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7290,11 +7151,10 @@
         <v>1.4576912857592109E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7309,11 +7169,10 @@
         <v>1.4180269092321399E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7328,11 +7187,10 @@
         <v>0.94171446561813354</v>
       </c>
       <c r="D143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7347,11 +7205,10 @@
         <v>1.467118039727211E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7366,11 +7223,10 @@
         <v>1.476241368800402E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145:D208" si="6">IF(C145&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D145:D208" si="3">IF(C145&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7385,11 +7241,10 @@
         <v>1.4174904674291611E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7404,11 +7259,10 @@
         <v>1.378689426928759E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7423,11 +7277,10 @@
         <v>1.384173519909382E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7442,11 +7295,10 @@
         <v>1.383170206099749E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7461,11 +7313,10 @@
         <v>1.392565108835697E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7480,11 +7331,10 @@
         <v>3.6105379462242133E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7499,11 +7349,10 @@
         <v>0.98523092269897461</v>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F152">
@@ -7521,11 +7370,10 @@
         <v>1.480283867567778E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7540,11 +7388,10 @@
         <v>1.902755722403526E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7559,11 +7406,10 @@
         <v>0.9827311635017395</v>
       </c>
       <c r="D155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F155">
@@ -7581,11 +7427,10 @@
         <v>1.4864444732666021E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7600,11 +7445,10 @@
         <v>1.368461083620787E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7619,11 +7463,10 @@
         <v>1.370769739151001E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7638,11 +7481,10 @@
         <v>1.416284963488579E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7657,11 +7499,10 @@
         <v>1.3690494932234291E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7676,11 +7517,10 @@
         <v>1.3750226236879831E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7695,11 +7535,10 @@
         <v>1.374022755771875E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7714,11 +7553,10 @@
         <v>1.370433904230595E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7733,11 +7571,10 @@
         <v>1.398639287799597E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7752,11 +7589,10 @@
         <v>1.4963678084313869E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7771,11 +7607,10 @@
         <v>1.3606025837361811E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7790,11 +7625,10 @@
         <v>0.21736536920070651</v>
       </c>
       <c r="D167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7809,11 +7643,10 @@
         <v>1.370215974748135E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7828,11 +7661,10 @@
         <v>0.21736536920070651</v>
       </c>
       <c r="D169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7847,11 +7679,10 @@
         <v>1.3849834911525249E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7866,11 +7697,10 @@
         <v>4.4671405106782913E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7885,11 +7715,10 @@
         <v>1.3775915838778021E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7904,11 +7733,10 @@
         <v>1.374985184520483E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7923,11 +7751,10 @@
         <v>0.57541799545288086</v>
       </c>
       <c r="D174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F174">
@@ -7945,11 +7772,10 @@
         <v>1.359329652041197E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7964,11 +7790,10 @@
         <v>1.366876158863306E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7983,11 +7808,10 @@
         <v>1.36525509878993E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8002,11 +7826,10 @@
         <v>1.4956840313971039E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8021,11 +7844,10 @@
         <v>0.2174161970615387</v>
       </c>
       <c r="D179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8040,11 +7862,10 @@
         <v>1.3946107588708401E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8059,11 +7880,10 @@
         <v>1.432393025606871E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8078,11 +7898,10 @@
         <v>2.8130177408456799E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8097,11 +7916,10 @@
         <v>0.96376705169677734</v>
       </c>
       <c r="D183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F183">
@@ -8119,11 +7937,10 @@
         <v>7.4291206896305084E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8138,11 +7955,10 @@
         <v>0.94365012645721436</v>
       </c>
       <c r="D185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E185">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8157,11 +7973,10 @@
         <v>1.368985790759325E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8176,11 +7991,10 @@
         <v>1.7004810273647308E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8195,11 +8009,10 @@
         <v>0.98545628786087036</v>
       </c>
       <c r="D188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8214,11 +8027,10 @@
         <v>0.9853929877281189</v>
       </c>
       <c r="D189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F189">
@@ -8236,11 +8048,10 @@
         <v>1.4432591386139389E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8255,11 +8066,10 @@
         <v>1.4291347935795781E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8274,11 +8084,10 @@
         <v>3.7908442318439477E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8293,11 +8102,10 @@
         <v>1.4266965910792351E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8312,11 +8120,10 @@
         <v>1.509837526828051E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="7">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -8331,11 +8138,10 @@
         <v>1.373087242245674E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8350,11 +8156,10 @@
         <v>1.4078458771109579E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8369,11 +8174,10 @@
         <v>1.6569113358855251E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8388,11 +8192,10 @@
         <v>1.464116387069225E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8407,11 +8210,10 @@
         <v>1.6532456502318379E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8426,11 +8228,10 @@
         <v>1.395218074321747E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8445,11 +8246,10 @@
         <v>1.3813008554279801E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8464,11 +8264,10 @@
         <v>2.1142484620213509E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8483,11 +8282,10 @@
         <v>5.2205324172973633E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8502,11 +8300,10 @@
         <v>4.0951225906610489E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8521,11 +8318,10 @@
         <v>1.3758718967437741E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8540,11 +8336,10 @@
         <v>1.3702018186449999E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8559,11 +8354,10 @@
         <v>1.3680363073945051E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8578,11 +8372,10 @@
         <v>1.4025792479515079E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8597,11 +8390,10 @@
         <v>1.4347599819302561E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" ref="D209:D272" si="8">IF(C209&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D209:D272" si="4">IF(C209&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8616,11 +8408,10 @@
         <v>1.4255582354962829E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8635,11 +8426,10 @@
         <v>1.3984125107526779E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8654,11 +8444,10 @@
         <v>1.39975119382143E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8673,11 +8462,10 @@
         <v>1.374667044728994E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8692,11 +8480,10 @@
         <v>1.4040715061128139E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8711,11 +8498,10 @@
         <v>1.36633887887001E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8730,11 +8516,10 @@
         <v>1.7149988561868671E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8749,11 +8534,10 @@
         <v>1.3832340016961099E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8768,11 +8552,10 @@
         <v>1.562277972698212E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8787,11 +8570,10 @@
         <v>1.375087257474661E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8806,11 +8588,10 @@
         <v>1.386133395135403E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8825,11 +8606,10 @@
         <v>1.357800513505936E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8844,11 +8624,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D222">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E222">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F222">
@@ -8866,11 +8645,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D223">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E223">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F223">
@@ -8888,11 +8666,10 @@
         <v>1.3783887028694149E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8907,11 +8684,10 @@
         <v>0.72267705202102661</v>
       </c>
       <c r="D225">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E225">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F225">
@@ -8929,11 +8705,10 @@
         <v>1.3652378693223E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8948,11 +8723,10 @@
         <v>1.9417945295572281E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8967,11 +8741,10 @@
         <v>1.431337092071772E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8986,11 +8759,10 @@
         <v>1.3644726946949961E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9005,11 +8777,10 @@
         <v>1.3746786862611771E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9024,11 +8795,10 @@
         <v>1.7291732132434842E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9043,11 +8813,10 @@
         <v>1.3727515935897831E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9062,11 +8831,10 @@
         <v>1.5279657207429411E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9081,11 +8849,10 @@
         <v>0.98540294170379639</v>
       </c>
       <c r="D234">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E234">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9100,11 +8867,10 @@
         <v>1.3815457932651039E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9119,11 +8885,10 @@
         <v>0.9853096604347229</v>
       </c>
       <c r="D236">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E236">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F236">
@@ -9141,11 +8906,10 @@
         <v>1.374286413192749E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9160,11 +8924,10 @@
         <v>0.1004878133535385</v>
       </c>
       <c r="D238">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9179,11 +8942,10 @@
         <v>0.94147372245788574</v>
       </c>
       <c r="D239">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E239">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F239">
@@ -9201,11 +8963,10 @@
         <v>1.371344830840826E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9220,11 +8981,10 @@
         <v>1.3631383888423439E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9239,11 +8999,10 @@
         <v>1.368574425578117E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9258,11 +9017,10 @@
         <v>1.3950547203421589E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9277,11 +9035,10 @@
         <v>1.383240427821875E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9296,11 +9053,10 @@
         <v>1.538384985178709E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9315,11 +9071,10 @@
         <v>1.414661388844252E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9334,11 +9089,10 @@
         <v>1.402385998517275E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9353,11 +9107,10 @@
         <v>0.98523950576782227</v>
       </c>
       <c r="D248">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E248">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F248">
@@ -9375,11 +9128,10 @@
         <v>1.3745364733040329E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9394,11 +9146,10 @@
         <v>1.427891291677952E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9413,11 +9164,10 @@
         <v>1.3965011574327949E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9432,11 +9182,10 @@
         <v>1.3815515674650671E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9451,11 +9200,10 @@
         <v>1.410715933889151E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9470,11 +9218,10 @@
         <v>0.98045772314071655</v>
       </c>
       <c r="D254">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E254">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F254">
@@ -9492,11 +9239,10 @@
         <v>1.394567359238863E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9511,11 +9257,10 @@
         <v>1.382229942828417E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9530,11 +9275,10 @@
         <v>0.98544704914093018</v>
       </c>
       <c r="D257">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E257">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F257">
@@ -9552,11 +9296,10 @@
         <v>0.9739348292350769</v>
       </c>
       <c r="D258">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="9">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
       <c r="F258">
@@ -9574,11 +9317,10 @@
         <v>1.384593453258276E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9593,11 +9335,10 @@
         <v>1.3774095103144649E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9612,11 +9353,10 @@
         <v>1.414519734680653E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9631,11 +9371,10 @@
         <v>1.444732397794724E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9650,11 +9389,10 @@
         <v>1.3603293336927891E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9669,11 +9407,10 @@
         <v>1.3937315903604031E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9688,11 +9425,10 @@
         <v>1.6532966867089272E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9707,11 +9443,10 @@
         <v>1.374082081019878E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9726,11 +9461,10 @@
         <v>1.3574927113950251E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9745,11 +9479,10 @@
         <v>1.3943438418209549E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9764,11 +9497,10 @@
         <v>1.3732390478253359E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9783,11 +9515,10 @@
         <v>0.21789450943470001</v>
       </c>
       <c r="D270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9802,11 +9533,10 @@
         <v>1.4339537359774109E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9821,11 +9551,10 @@
         <v>0.98505359888076782</v>
       </c>
       <c r="D272">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E272">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F272">
@@ -9843,11 +9572,10 @@
         <v>1.503965631127357E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" ref="D273:D336" si="10">IF(C273&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D273:D336" si="5">IF(C273&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9862,11 +9590,10 @@
         <v>1.385024469345808E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9881,11 +9608,10 @@
         <v>1.378501486033201E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9900,11 +9626,10 @@
         <v>0.98545712232589722</v>
       </c>
       <c r="D276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F276">
@@ -9922,11 +9647,10 @@
         <v>3.1705066561698907E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9941,11 +9665,10 @@
         <v>1.356474030762911E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9960,11 +9683,10 @@
         <v>1.3735471293330191E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9979,11 +9701,10 @@
         <v>1.3651197776198391E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9998,11 +9719,10 @@
         <v>0.98500627279281616</v>
       </c>
       <c r="D281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E281">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10017,11 +9737,10 @@
         <v>1.3935966417193409E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10036,11 +9755,10 @@
         <v>1.543525792658329E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10055,11 +9773,10 @@
         <v>1.367825362831354E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10074,11 +9791,10 @@
         <v>3.031011484563351E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10093,11 +9809,10 @@
         <v>7.7154852449893951E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10112,11 +9827,10 @@
         <v>1.4911629259586331E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10131,11 +9845,10 @@
         <v>1.369193755090237E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10150,11 +9863,10 @@
         <v>1.369955111294985E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10169,11 +9881,10 @@
         <v>2.6446260511875149E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10188,11 +9899,10 @@
         <v>0.98545175790786743</v>
       </c>
       <c r="D291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E291">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10207,11 +9917,10 @@
         <v>0.98475509881973267</v>
       </c>
       <c r="D292">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E292">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F292">
@@ -10229,11 +9938,10 @@
         <v>0.92307180166244507</v>
       </c>
       <c r="D293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E293">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10248,11 +9956,10 @@
         <v>1.4694317243993281E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10267,11 +9974,10 @@
         <v>0.9854578971862793</v>
       </c>
       <c r="D295">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E295">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10286,11 +9992,10 @@
         <v>4.9505129456520081E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10305,11 +10010,10 @@
         <v>1.5909221023321152E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10324,11 +10028,10 @@
         <v>1.7328580841422081E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10343,11 +10046,10 @@
         <v>1.358126197010279E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10362,11 +10064,10 @@
         <v>1.4115743339061741E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10381,11 +10082,10 @@
         <v>1.380635797977448E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10400,11 +10100,10 @@
         <v>1.5990393236279491E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10419,11 +10118,10 @@
         <v>1.3852640986442569E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10438,11 +10136,10 @@
         <v>1.3733049854636191E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10457,11 +10154,10 @@
         <v>9.9304333329200745E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10476,11 +10172,10 @@
         <v>1.4631384983658791E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10495,11 +10190,10 @@
         <v>1.384901441633701E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10514,11 +10208,10 @@
         <v>1.3923476450145239E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10533,11 +10226,10 @@
         <v>1.3847810216248041E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10552,11 +10244,10 @@
         <v>2.6248425245285031E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10571,11 +10262,10 @@
         <v>4.123726487159729E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10590,11 +10280,10 @@
         <v>1.5534507110714911E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10609,11 +10298,10 @@
         <v>1.3964361511170861E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10628,11 +10316,10 @@
         <v>0.43241652846336359</v>
       </c>
       <c r="D314">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10647,11 +10334,10 @@
         <v>1.3646683655679229E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10666,11 +10352,10 @@
         <v>2.4664746597409248E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10685,11 +10370,10 @@
         <v>4.1160766035318368E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10704,11 +10388,10 @@
         <v>2.4029135704040531E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10723,11 +10406,10 @@
         <v>1.4568024314939979E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10742,11 +10424,10 @@
         <v>0.81047928333282471</v>
       </c>
       <c r="D320">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E320">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F320">
@@ -10764,11 +10445,10 @@
         <v>1.9459357485175129E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10783,11 +10463,10 @@
         <v>0.2173628956079483</v>
       </c>
       <c r="D322">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="11">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -10802,11 +10481,10 @@
         <v>1.4864807017147539E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10821,11 +10499,10 @@
         <v>2.0708369091153141E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10840,11 +10517,10 @@
         <v>4.4934980571269989E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10859,11 +10535,10 @@
         <v>0.98539632558822632</v>
       </c>
       <c r="D326">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E326">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F326">
@@ -10881,11 +10556,10 @@
         <v>0.98547667264938354</v>
       </c>
       <c r="D327">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E327">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -10900,11 +10574,10 @@
         <v>1.5586931258440019E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10919,11 +10592,10 @@
         <v>0.9422757625579834</v>
       </c>
       <c r="D329">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E329">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F329">
@@ -10941,11 +10613,10 @@
         <v>0.98496592044830322</v>
       </c>
       <c r="D330">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E330">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -10960,11 +10631,10 @@
         <v>0.98547351360321045</v>
       </c>
       <c r="D331">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E331">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -10979,11 +10649,10 @@
         <v>1.4140051789581779E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10998,11 +10667,10 @@
         <v>4.3735802173614502E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11017,11 +10685,10 @@
         <v>1.4113740064203739E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11036,11 +10703,10 @@
         <v>0.89213055372238159</v>
       </c>
       <c r="D335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E335">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11055,11 +10721,10 @@
         <v>1.382527686655521E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11074,11 +10739,10 @@
         <v>1.3963086530566221E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" ref="D337:D400" si="12">IF(C337&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D337:D400" si="6">IF(C337&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11093,11 +10757,10 @@
         <v>0.98548001050949097</v>
       </c>
       <c r="D338">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E338">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11112,11 +10775,10 @@
         <v>0.9459911584854126</v>
       </c>
       <c r="D339">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E339">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F339">
@@ -11134,11 +10796,10 @@
         <v>1.362593658268452E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11153,11 +10814,10 @@
         <v>1.580500602722168E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11172,11 +10832,10 @@
         <v>1.428586803376675E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11191,11 +10850,10 @@
         <v>0.90923446416854858</v>
       </c>
       <c r="D343">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E343">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F343">
@@ -11213,11 +10871,10 @@
         <v>1.362662203609943E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11232,11 +10889,10 @@
         <v>1.360694039613008E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11251,11 +10907,10 @@
         <v>1.381626911461353E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11270,11 +10925,10 @@
         <v>1.3604726642370221E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11289,11 +10943,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D348">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11308,11 +10961,10 @@
         <v>0.98543339967727661</v>
       </c>
       <c r="D349">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E349">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F349">
@@ -11330,11 +10982,10 @@
         <v>3.7253517657518387E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11349,11 +11000,10 @@
         <v>2.928879484534264E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11368,11 +11018,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D352">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11387,11 +11036,10 @@
         <v>1.542927511036396E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11406,11 +11054,10 @@
         <v>0.1483408510684967</v>
       </c>
       <c r="D354">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11425,11 +11072,10 @@
         <v>1.3963658362627029E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11444,11 +11090,10 @@
         <v>1.391006261110306E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11463,11 +11108,10 @@
         <v>0.34843137860298162</v>
       </c>
       <c r="D357">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11482,11 +11126,10 @@
         <v>1.485629938542843E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11501,11 +11144,10 @@
         <v>1.42478859052062E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11520,11 +11162,10 @@
         <v>1.9972957670688629E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11539,11 +11180,10 @@
         <v>0.98544496297836304</v>
       </c>
       <c r="D361">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E361">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11558,11 +11198,10 @@
         <v>1.3694326393306261E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11577,11 +11216,10 @@
         <v>3.6580011248588562E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11596,11 +11234,10 @@
         <v>0.98547017574310303</v>
       </c>
       <c r="D364">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E364">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F364">
@@ -11618,11 +11255,10 @@
         <v>0.1118937805294991</v>
       </c>
       <c r="D365">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11637,11 +11273,10 @@
         <v>1.446272898465395E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11656,11 +11291,10 @@
         <v>1.446272898465395E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11675,11 +11309,10 @@
         <v>1.3734760694205759E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11694,11 +11327,10 @@
         <v>0.98547643423080444</v>
       </c>
       <c r="D369">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E369">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F369">
@@ -11716,11 +11348,10 @@
         <v>1.3839671388268471E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11735,11 +11366,10 @@
         <v>1.4272390864789489E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11754,11 +11384,10 @@
         <v>0.98413068056106567</v>
       </c>
       <c r="D372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F372">
@@ -11776,11 +11405,10 @@
         <v>0.85717082023620605</v>
       </c>
       <c r="D373">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E373">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F373">
@@ -11798,11 +11426,10 @@
         <v>0.15349398553371429</v>
       </c>
       <c r="D374">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11817,11 +11444,10 @@
         <v>0.98413068056106567</v>
       </c>
       <c r="D375">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E375">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F375">
@@ -11839,11 +11465,10 @@
         <v>0.98536115884780884</v>
       </c>
       <c r="D376">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E376">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F376">
@@ -11861,11 +11486,10 @@
         <v>0.9722827672958374</v>
       </c>
       <c r="D377">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E377">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F377">
@@ -11883,11 +11507,10 @@
         <v>1.4277974143624309E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11902,11 +11525,10 @@
         <v>1.3640588149428369E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11921,11 +11543,10 @@
         <v>2.6634525507688519E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11940,11 +11561,10 @@
         <v>1.393705420196056E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11959,11 +11579,10 @@
         <v>0.15339243412017819</v>
       </c>
       <c r="D382">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11978,11 +11597,10 @@
         <v>1.3675320893526081E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11997,11 +11615,10 @@
         <v>1.3992944732308389E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12016,11 +11633,10 @@
         <v>1.3776693493127819E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12035,11 +11651,10 @@
         <v>1.3651422224938869E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="13">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -12054,11 +11669,10 @@
         <v>1.3788470067083841E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12073,11 +11687,10 @@
         <v>1.384159177541733E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12092,11 +11705,10 @@
         <v>1.4136728830635549E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12111,11 +11723,10 @@
         <v>6.2929742038249969E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12130,11 +11741,10 @@
         <v>1.518475543707609E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12149,11 +11759,10 @@
         <v>1.418763026595116E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12168,11 +11777,10 @@
         <v>1.364851929247379E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12187,11 +11795,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D394">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E394">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F394">
@@ -12209,11 +11816,10 @@
         <v>1.515931356698275E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12228,11 +11834,10 @@
         <v>0.98544508218765259</v>
       </c>
       <c r="D396">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E396">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F396">
@@ -12250,11 +11855,10 @@
         <v>0.98547005653381348</v>
       </c>
       <c r="D397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E397">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12269,11 +11873,10 @@
         <v>0.95621538162231445</v>
       </c>
       <c r="D398">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E398">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F398">
@@ -12291,11 +11894,10 @@
         <v>0.98546290397644043</v>
       </c>
       <c r="D399">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E399">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F399">
@@ -12313,11 +11915,10 @@
         <v>1.383711490780115E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12332,11 +11933,10 @@
         <v>0.98545932769775391</v>
       </c>
       <c r="D401">
-        <f t="shared" ref="D401:D464" si="14">IF(C401&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D401:D464" si="7">IF(C401&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E401">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12351,11 +11951,10 @@
         <v>1.8389696255326271E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12370,11 +11969,10 @@
         <v>5.0344046205282211E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12389,11 +11987,10 @@
         <v>0.9854767918586731</v>
       </c>
       <c r="D404">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E404">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12408,11 +12005,10 @@
         <v>2.7727322652935978E-2</v>
       </c>
       <c r="D405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12427,11 +12023,10 @@
         <v>1.364623475819826E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12446,11 +12041,10 @@
         <v>0.98536521196365356</v>
       </c>
       <c r="D407">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E407">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F407">
@@ -12468,11 +12062,10 @@
         <v>0.9854508638381958</v>
       </c>
       <c r="D408">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E408">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12487,11 +12080,10 @@
         <v>0.9854665994644165</v>
       </c>
       <c r="D409">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E409">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12506,11 +12098,10 @@
         <v>0.98542594909667969</v>
       </c>
       <c r="D410">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E410">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12525,11 +12116,10 @@
         <v>0.98547965288162231</v>
       </c>
       <c r="D411">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E411">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12544,11 +12134,10 @@
         <v>0.75069379806518555</v>
       </c>
       <c r="D412">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E412">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F412">
@@ -12566,11 +12155,10 @@
         <v>0.9854738712310791</v>
       </c>
       <c r="D413">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E413">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F413">
@@ -12588,11 +12176,10 @@
         <v>0.98481214046478271</v>
       </c>
       <c r="D414">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F414">
@@ -12610,11 +12197,10 @@
         <v>0.98542481660842896</v>
       </c>
       <c r="D415">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E415">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F415">
@@ -12632,11 +12218,10 @@
         <v>1.4036848209798339E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12651,11 +12236,10 @@
         <v>6.1830118298530579E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12670,11 +12254,10 @@
         <v>0.22312040627002719</v>
       </c>
       <c r="D418">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12689,11 +12272,10 @@
         <v>0.98546314239501953</v>
       </c>
       <c r="D419">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E419">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12708,11 +12290,10 @@
         <v>1.423305924981833E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12727,11 +12308,10 @@
         <v>1.384653244167566E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12746,11 +12326,10 @@
         <v>1.371709909290075E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12765,11 +12344,10 @@
         <v>1.4554812572896481E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12784,11 +12362,10 @@
         <v>2.959476783871651E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12803,11 +12380,10 @@
         <v>1.458706054836512E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12822,11 +12398,10 @@
         <v>0.98528546094894409</v>
       </c>
       <c r="D426">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E426">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -12841,11 +12416,10 @@
         <v>0.98543685674667358</v>
       </c>
       <c r="D427">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E427">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F427">
@@ -12863,11 +12437,10 @@
         <v>4.5467507094144821E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12882,11 +12455,10 @@
         <v>0.92110449075698853</v>
       </c>
       <c r="D429">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E429">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F429">
@@ -12904,11 +12476,10 @@
         <v>1.396986469626427E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12923,11 +12494,10 @@
         <v>1.4270647428929809E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12942,11 +12512,10 @@
         <v>1.415442395955324E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12961,11 +12530,10 @@
         <v>1.396525464951992E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12980,11 +12548,10 @@
         <v>0.98486852645874023</v>
       </c>
       <c r="D434">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E434">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F434">
@@ -13002,11 +12569,10 @@
         <v>0.21717008948326111</v>
       </c>
       <c r="D435">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13021,11 +12587,10 @@
         <v>1.3665612787008291E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13040,11 +12605,10 @@
         <v>2.7764584869146351E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13059,11 +12623,10 @@
         <v>2.035759016871452E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13078,11 +12641,10 @@
         <v>0.98547911643981934</v>
       </c>
       <c r="D439">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E439">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13097,11 +12659,10 @@
         <v>0.9852982759475708</v>
       </c>
       <c r="D440">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E440">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13116,11 +12677,10 @@
         <v>0.98547792434692383</v>
       </c>
       <c r="D441">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E441">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13135,11 +12695,10 @@
         <v>0.98547643423080444</v>
       </c>
       <c r="D442">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E442">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13154,11 +12713,10 @@
         <v>1.4508691616356369E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13173,11 +12731,10 @@
         <v>1.5083979815244669E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13192,11 +12749,10 @@
         <v>1.3781974092125889E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13211,11 +12767,10 @@
         <v>1.367231830954552E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13230,11 +12785,10 @@
         <v>1.375661697238684E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13249,11 +12803,10 @@
         <v>1.37021541595459E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13268,11 +12821,10 @@
         <v>1.382920518517494E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13287,11 +12839,10 @@
         <v>1.3627788051962851E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="15">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13306,11 +12857,10 @@
         <v>1.365421526134014E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13325,11 +12875,10 @@
         <v>1.3871121220290661E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13344,11 +12893,10 @@
         <v>1.4844103716313841E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13363,11 +12911,10 @@
         <v>1.370763313025236E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13382,11 +12929,10 @@
         <v>1.3749023899436E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13401,11 +12947,10 @@
         <v>1.3615237548947331E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13420,11 +12965,10 @@
         <v>1.364010665565729E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13439,11 +12983,10 @@
         <v>1.366877462714911E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13458,11 +13001,10 @@
         <v>1.380124408751726E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13477,11 +13019,10 @@
         <v>1.3703751377761361E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13496,11 +13037,10 @@
         <v>2.4095093831419941E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13515,11 +13055,10 @@
         <v>1.4037264510989189E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13534,11 +13073,10 @@
         <v>1.385422516614199E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13553,11 +13091,10 @@
         <v>1.3665431179106241E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13572,11 +13109,10 @@
         <v>1.389102917164564E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" ref="D465:D528" si="16">IF(C465&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D465:D528" si="8">IF(C465&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13591,11 +13127,10 @@
         <v>0.98509800434112549</v>
       </c>
       <c r="D466">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E466">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F466">
@@ -13613,11 +13148,10 @@
         <v>1.4385188929736611E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13632,11 +13166,10 @@
         <v>0.2180924862623215</v>
       </c>
       <c r="D468">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13651,11 +13184,10 @@
         <v>4.1884705424308777E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13670,11 +13202,10 @@
         <v>1.5586471185088159E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13689,11 +13220,10 @@
         <v>1.5030644834041601E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13708,11 +13238,10 @@
         <v>0.98251259326934814</v>
       </c>
       <c r="D472">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E472">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F472">
@@ -13730,11 +13259,10 @@
         <v>1.379537116736174E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13749,11 +13277,10 @@
         <v>1.366319600492716E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13768,11 +13295,10 @@
         <v>2.8366480022668839E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13787,11 +13313,10 @@
         <v>3.1339902430772781E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13806,11 +13331,10 @@
         <v>0.98537749052047729</v>
       </c>
       <c r="D477">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E477">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F477">
@@ -13828,11 +13352,10 @@
         <v>0.98080277442932129</v>
       </c>
       <c r="D478">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E478">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F478">
@@ -13850,11 +13373,10 @@
         <v>0.98546916246414185</v>
       </c>
       <c r="D479">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E479">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -13869,11 +13391,10 @@
         <v>0.98547506332397461</v>
       </c>
       <c r="D480">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E480">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -13888,11 +13409,10 @@
         <v>0.98548072576522827</v>
       </c>
       <c r="D481">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E481">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -13907,11 +13427,10 @@
         <v>1.542420592159033E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13926,11 +13445,10 @@
         <v>1.3910382986068731E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13945,11 +13463,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D484">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13964,11 +13481,10 @@
         <v>3.1960036605596542E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13983,11 +13499,10 @@
         <v>1.874778047204018E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14002,11 +13517,10 @@
         <v>2.9663234949111938E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14021,11 +13535,10 @@
         <v>0.2175357639789581</v>
       </c>
       <c r="D488">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14040,11 +13553,10 @@
         <v>3.0523763969540599E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14059,11 +13571,10 @@
         <v>1.38001786544919E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14078,11 +13589,10 @@
         <v>1.4726622030138969E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14097,11 +13607,10 @@
         <v>1.4189364388585091E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14116,11 +13625,10 @@
         <v>1.402887888252735E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14135,11 +13643,10 @@
         <v>1.4039158821105961E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14154,11 +13661,10 @@
         <v>1.5734206885099411E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14173,11 +13679,10 @@
         <v>0.2172937989234924</v>
       </c>
       <c r="D496">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14192,11 +13697,10 @@
         <v>3.6197476089000702E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14211,11 +13715,10 @@
         <v>1.408117823302746E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14230,11 +13733,10 @@
         <v>0.97621446847915649</v>
       </c>
       <c r="D499">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E499">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F499">
@@ -14252,11 +13754,10 @@
         <v>1.367169339209795E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14271,11 +13772,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14290,11 +13790,10 @@
         <v>1.3685731217265131E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14309,11 +13808,10 @@
         <v>1.359118614345789E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14328,11 +13826,10 @@
         <v>1.3734425418078899E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14347,11 +13844,10 @@
         <v>2.193670533597469E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14366,11 +13862,10 @@
         <v>1.376044098287821E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14385,11 +13880,10 @@
         <v>1.372339110821486E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14404,11 +13898,10 @@
         <v>1.378242112696171E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14423,11 +13916,10 @@
         <v>0.93394571542739868</v>
       </c>
       <c r="D509">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E509">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F509">
@@ -14445,11 +13937,10 @@
         <v>1.399465557187796E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14464,11 +13955,10 @@
         <v>1.3782123103737829E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14483,11 +13973,10 @@
         <v>1.781994849443436E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14502,11 +13991,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14521,11 +14009,10 @@
         <v>1.380639150738716E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="17">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14540,11 +14027,10 @@
         <v>2.4095093831419941E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14559,11 +14045,10 @@
         <v>1.3680024072527891E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14578,11 +14063,10 @@
         <v>1.4482098631560801E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14597,11 +14081,10 @@
         <v>1.3980048708617691E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14616,11 +14099,10 @@
         <v>1.3589454814791679E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14635,11 +14117,10 @@
         <v>1.3770688325166701E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14654,11 +14135,10 @@
         <v>1.456332299858332E-2</v>
       </c>
       <c r="D521">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14673,11 +14153,10 @@
         <v>1.6388643532991409E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14692,11 +14171,10 @@
         <v>0.98546904325485229</v>
       </c>
       <c r="D523">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E523">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -14711,11 +14189,10 @@
         <v>1.3724907301366329E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14730,11 +14207,10 @@
         <v>1.357630640268326E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14749,11 +14225,10 @@
         <v>1.3794501312077051E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14768,11 +14243,10 @@
         <v>0.94147783517837524</v>
       </c>
       <c r="D527">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E527">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F527">
@@ -14790,11 +14264,10 @@
         <v>0.98510980606079102</v>
       </c>
       <c r="D528">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E528">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -14809,11 +14282,10 @@
         <v>2.7920005843043331E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" ref="D529:D592" si="18">IF(C529&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D529:D592" si="9">IF(C529&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14828,11 +14300,10 @@
         <v>1.4430887997150419E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14847,11 +14318,10 @@
         <v>1.3818309642374521E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14866,11 +14336,10 @@
         <v>1.372939441353083E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14885,11 +14354,10 @@
         <v>1.3980048708617691E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14904,11 +14372,10 @@
         <v>1.6305858269333839E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14923,11 +14390,10 @@
         <v>1.3623642735183241E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14942,11 +14408,10 @@
         <v>1.3708239421248439E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14961,11 +14426,10 @@
         <v>1.3769239187240601E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14980,11 +14444,10 @@
         <v>1.3735083863139151E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -14999,11 +14462,10 @@
         <v>0.98110651969909668</v>
       </c>
       <c r="D539">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E539">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F539">
@@ -15021,11 +14483,10 @@
         <v>0.98547559976577759</v>
       </c>
       <c r="D540">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E540">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -15040,11 +14501,10 @@
         <v>1.7407216131687161E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15059,11 +14519,10 @@
         <v>2.8360882773995399E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15078,11 +14537,10 @@
         <v>1.4291819185018539E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15097,11 +14555,10 @@
         <v>1.377335097640753E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15116,11 +14573,10 @@
         <v>0.98546206951141357</v>
       </c>
       <c r="D545">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E545">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -15135,11 +14591,10 @@
         <v>0.98547178506851196</v>
       </c>
       <c r="D546">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E546">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -15154,11 +14609,10 @@
         <v>2.3823333904147152E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15173,11 +14627,10 @@
         <v>1.373114995658398E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15192,11 +14645,10 @@
         <v>1.38204013928771E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15211,11 +14663,10 @@
         <v>0.21716505289077759</v>
       </c>
       <c r="D550">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15230,11 +14681,10 @@
         <v>2.6842698454856869E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15249,11 +14699,10 @@
         <v>0.98546069860458374</v>
       </c>
       <c r="D552">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E552">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -15268,11 +14717,10 @@
         <v>1.4028278179466719E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15287,11 +14735,10 @@
         <v>1.390950568020344E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15306,11 +14753,10 @@
         <v>0.79027426242828369</v>
       </c>
       <c r="D555">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E555">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F555">
@@ -15328,11 +14774,10 @@
         <v>1.41679160296917E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15347,11 +14792,10 @@
         <v>1.4054023660719389E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15366,11 +14810,10 @@
         <v>0.41585138440132141</v>
       </c>
       <c r="D558">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15385,11 +14828,10 @@
         <v>1.405354775488377E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15404,11 +14846,10 @@
         <v>1.495207194238901E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15423,11 +14864,10 @@
         <v>1.48824006319046E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15442,11 +14882,10 @@
         <v>1.370282471179962E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15461,11 +14900,10 @@
         <v>1.4106376096606249E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15480,11 +14918,10 @@
         <v>0.97645682096481323</v>
       </c>
       <c r="D564">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E564">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F564">
@@ -15502,11 +14939,10 @@
         <v>1.378751732409E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15521,11 +14957,10 @@
         <v>1.3784755021333689E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15540,11 +14975,10 @@
         <v>1.3644367456436161E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15559,11 +14993,10 @@
         <v>1.3747775927186011E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15578,11 +15011,10 @@
         <v>0.98541969060897827</v>
       </c>
       <c r="D569">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E569">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -15597,11 +15029,10 @@
         <v>1.3723578304052349E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15616,11 +15047,10 @@
         <v>0.98518908023834229</v>
       </c>
       <c r="D571">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E571">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F571">
@@ -15638,11 +15068,10 @@
         <v>1.4425592496991159E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15657,11 +15086,10 @@
         <v>1.411170233041048E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15676,11 +15104,10 @@
         <v>3.7324368953704827E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15695,11 +15122,10 @@
         <v>1.408672053366899E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15714,11 +15140,10 @@
         <v>3.241540864109993E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15733,11 +15158,10 @@
         <v>1.421066373586655E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15752,11 +15176,10 @@
         <v>0.98455750942230225</v>
       </c>
       <c r="D578">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="19">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
       <c r="F578">
@@ -15774,11 +15197,10 @@
         <v>0.79713797569274902</v>
       </c>
       <c r="D579">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E579">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F579">
@@ -15796,11 +15218,10 @@
         <v>1.3831246644258499E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15815,11 +15236,10 @@
         <v>1.8678838387131691E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15834,11 +15254,10 @@
         <v>0.83754485845565796</v>
       </c>
       <c r="D582">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E582">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F582">
@@ -15856,11 +15275,10 @@
         <v>0.84206432104110718</v>
       </c>
       <c r="D583">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E583">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F583">
@@ -15878,11 +15296,10 @@
         <v>6.0248516499996192E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15897,11 +15314,10 @@
         <v>0.98529994487762451</v>
       </c>
       <c r="D585">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E585">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -15916,11 +15332,10 @@
         <v>1.3848382048308849E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15935,11 +15350,10 @@
         <v>3.945637121796608E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15954,11 +15368,10 @@
         <v>0.96307569742202759</v>
       </c>
       <c r="D588">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E588">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F588">
@@ -15976,11 +15389,10 @@
         <v>0.98548233509063721</v>
       </c>
       <c r="D589">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E589">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -15995,11 +15407,10 @@
         <v>0.98547202348709106</v>
       </c>
       <c r="D590">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E590">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16014,11 +15425,10 @@
         <v>0.98531371355056763</v>
       </c>
       <c r="D591">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E591">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F591">
@@ -16036,11 +15446,10 @@
         <v>0.98514217138290405</v>
       </c>
       <c r="D592">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E592">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F592">
@@ -16058,11 +15467,10 @@
         <v>6.6700682044029236E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" ref="D593:D656" si="20">IF(C593&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D593:D656" si="10">IF(C593&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16077,11 +15485,10 @@
         <v>0.98547112941741943</v>
       </c>
       <c r="D594">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E594">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F594">
@@ -16099,11 +15506,10 @@
         <v>1.5490123070776461E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16118,11 +15524,10 @@
         <v>1.4656697399914259E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16137,11 +15542,10 @@
         <v>3.0819086357951161E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16156,11 +15560,10 @@
         <v>1.519733853638172E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16175,11 +15578,10 @@
         <v>1.6974722966551781E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16194,11 +15596,10 @@
         <v>1.431628502905369E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16213,11 +15614,10 @@
         <v>1.4256280846893791E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16232,11 +15632,10 @@
         <v>1.379895862191916E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16251,11 +15650,10 @@
         <v>1.3717396184802061E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16270,11 +15668,10 @@
         <v>0.98538142442703247</v>
       </c>
       <c r="D604">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E604">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F604">
@@ -16292,11 +15689,10 @@
         <v>1.4954375103116041E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16311,11 +15707,10 @@
         <v>1.3915315270423889E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16330,11 +15725,10 @@
         <v>2.224623970687389E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16349,11 +15743,10 @@
         <v>0.98547005653381348</v>
       </c>
       <c r="D608">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E608">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F608">
@@ -16371,11 +15764,10 @@
         <v>0.98541510105133057</v>
       </c>
       <c r="D609">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E609">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F609">
@@ -16393,11 +15785,10 @@
         <v>0.98546552658081055</v>
       </c>
       <c r="D610">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E610">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F610">
@@ -16415,11 +15806,10 @@
         <v>0.98548489809036255</v>
       </c>
       <c r="D611">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E611">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F611">
@@ -16437,11 +15827,10 @@
         <v>0.98508483171463013</v>
       </c>
       <c r="D612">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E612">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F612">
@@ -16459,11 +15848,10 @@
         <v>0.98541277647018433</v>
       </c>
       <c r="D613">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E613">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F613">
@@ -16481,11 +15869,10 @@
         <v>0.98523753881454468</v>
       </c>
       <c r="D614">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E614">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F614">
@@ -16503,11 +15890,10 @@
         <v>1.3603664003312589E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16522,11 +15908,10 @@
         <v>0.97855925559997559</v>
       </c>
       <c r="D616">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E616">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F616">
@@ -16544,11 +15929,10 @@
         <v>1.366657577455044E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16563,11 +15947,10 @@
         <v>1.434666942805052E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16582,11 +15965,10 @@
         <v>0.33207535743713379</v>
       </c>
       <c r="D619">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16601,11 +15983,10 @@
         <v>1.4050727710127831E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16620,11 +16001,10 @@
         <v>1.390896271914244E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16639,11 +16019,10 @@
         <v>1.4015877619385719E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16658,11 +16037,10 @@
         <v>7.9084709286689758E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16677,11 +16055,10 @@
         <v>1.568413712084293E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16696,11 +16073,10 @@
         <v>1.4296030625700951E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16715,11 +16091,10 @@
         <v>1.369661279022694E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16734,11 +16109,10 @@
         <v>1.5575991943478581E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16753,11 +16127,10 @@
         <v>0.2173860967159271</v>
       </c>
       <c r="D628">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16772,11 +16145,10 @@
         <v>1.760273240506649E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16791,11 +16163,10 @@
         <v>0.98502719402313232</v>
       </c>
       <c r="D630">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E630">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F630">
@@ -16813,11 +16184,10 @@
         <v>1.375040877610445E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16832,11 +16202,10 @@
         <v>1.4022692106664181E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16851,11 +16220,10 @@
         <v>1.6489118337631229E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16870,11 +16238,10 @@
         <v>0.98547399044036865</v>
       </c>
       <c r="D634">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E634">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16889,11 +16256,10 @@
         <v>1.622308790683746E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16908,11 +16274,10 @@
         <v>2.9481604695320129E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16927,11 +16292,10 @@
         <v>1.7838979139924049E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16946,11 +16310,10 @@
         <v>0.93484383821487427</v>
       </c>
       <c r="D638">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E638">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16965,11 +16328,10 @@
         <v>0.98547178506851196</v>
       </c>
       <c r="D639">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E639">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -16984,11 +16346,10 @@
         <v>1.3741345144808291E-2</v>
       </c>
       <c r="D640">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17003,11 +16364,10 @@
         <v>0.98548036813735962</v>
       </c>
       <c r="D641">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E641">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -17022,11 +16382,10 @@
         <v>1.4249862171709539E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E695" si="21">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
     </row>
@@ -17041,11 +16400,10 @@
         <v>0.98548156023025513</v>
       </c>
       <c r="D643">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E643">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17060,11 +16418,10 @@
         <v>1.548265758901834E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17079,11 +16436,10 @@
         <v>4.1538741439580917E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17098,11 +16454,10 @@
         <v>1.4839057810604571E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17117,11 +16472,10 @@
         <v>1.6132751479744911E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17136,11 +16490,10 @@
         <v>1.372128073126078E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17155,11 +16508,10 @@
         <v>1.3962221331894399E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17174,11 +16526,10 @@
         <v>0.9854511022567749</v>
       </c>
       <c r="D650">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E650">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17193,11 +16544,10 @@
         <v>0.9854590892791748</v>
       </c>
       <c r="D651">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E651">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17212,11 +16562,10 @@
         <v>0.98515492677688599</v>
       </c>
       <c r="D652">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E652">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F652">
@@ -17234,11 +16583,10 @@
         <v>3.3338055014610291E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17253,11 +16601,10 @@
         <v>0.98516339063644409</v>
       </c>
       <c r="D654">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E654">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17272,11 +16619,10 @@
         <v>0.98547768592834473</v>
       </c>
       <c r="D655">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E655">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17291,11 +16637,10 @@
         <v>0.98546355962753296</v>
       </c>
       <c r="D656">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E656">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F656">
@@ -17313,11 +16658,10 @@
         <v>0.98547542095184326</v>
       </c>
       <c r="D657">
-        <f t="shared" ref="D657:D694" si="22">IF(C657&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D657:D694" si="11">IF(C657&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E657">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17332,11 +16676,10 @@
         <v>1.366443000733852E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17351,11 +16694,10 @@
         <v>7.0221394300460815E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17370,11 +16712,10 @@
         <v>1.391133014112711E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17389,11 +16730,10 @@
         <v>0.64587509632110596</v>
       </c>
       <c r="D661">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E661">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F661">
@@ -17411,11 +16751,10 @@
         <v>0.95660686492919922</v>
       </c>
       <c r="D662">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E662">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F662">
@@ -17433,11 +16772,10 @@
         <v>1.5011990442872049E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17452,11 +16790,10 @@
         <v>0.98546743392944336</v>
       </c>
       <c r="D664">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E664">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F664">
@@ -17474,11 +16811,10 @@
         <v>0.96285992860794067</v>
       </c>
       <c r="D665">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E665">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F665">
@@ -17496,11 +16832,10 @@
         <v>1.39453336596489E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17515,11 +16850,10 @@
         <v>0.97862553596496582</v>
       </c>
       <c r="D667">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E667">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F667">
@@ -17537,11 +16871,10 @@
         <v>1.392325479537249E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17556,11 +16889,10 @@
         <v>1.374274678528309E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17575,11 +16907,10 @@
         <v>1.366074103862047E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17594,11 +16925,10 @@
         <v>6.8348817527294159E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17613,11 +16943,10 @@
         <v>0.23349197208881381</v>
       </c>
       <c r="D672">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17632,11 +16961,10 @@
         <v>0.88715112209320068</v>
       </c>
       <c r="D673">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E673">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F673">
@@ -17654,11 +16982,10 @@
         <v>1.45348347723484E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17673,11 +17000,10 @@
         <v>1.3654426671564581E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17692,11 +17018,10 @@
         <v>1.407350786030293E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17711,11 +17036,10 @@
         <v>0.98334747552871704</v>
       </c>
       <c r="D677">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E677">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F677">
@@ -17733,11 +17057,10 @@
         <v>1.382447779178619E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17752,11 +17075,10 @@
         <v>2.863391675055027E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17771,11 +17093,10 @@
         <v>1.418554410338402E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17790,11 +17111,10 @@
         <v>0.98547768592834473</v>
       </c>
       <c r="D681">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E681">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F681">
@@ -17812,11 +17132,10 @@
         <v>1.3629640452563759E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17831,11 +17150,10 @@
         <v>0.21722893416881561</v>
       </c>
       <c r="D683">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E683">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17850,11 +17168,10 @@
         <v>1.3604706153273581E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17869,11 +17186,10 @@
         <v>1.357422396540642E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17888,11 +17204,10 @@
         <v>0.98546832799911499</v>
       </c>
       <c r="D686">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E686">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F686">
@@ -17910,11 +17225,10 @@
         <v>1.4009216800332069E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17929,11 +17243,10 @@
         <v>2.0490659400820729E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17948,11 +17261,10 @@
         <v>1.3837785460054869E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17967,11 +17279,10 @@
         <v>0.98533833026885986</v>
       </c>
       <c r="D690">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E690">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F690">
@@ -17989,11 +17300,10 @@
         <v>1.572357676923275E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18008,11 +17318,10 @@
         <v>1.440765149891376E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18027,11 +17336,10 @@
         <v>1.3634731993079191E-2</v>
       </c>
       <c r="D693">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18046,11 +17354,10 @@
         <v>0.98547065258026123</v>
       </c>
       <c r="D694">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E694">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F694">
@@ -18068,11 +17375,10 @@
         <v>0.98545897006988525</v>
       </c>
       <c r="D695">
-        <f t="shared" ref="D695" si="23">IF(C695&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D695" si="12">IF(C695&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E695">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F695">
